--- a/Basic_rate_making/wk7/examples_notes.xlsx
+++ b/Basic_rate_making/wk7/examples_notes.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris.cirelli\Desktop\repositories\gsu_fall_2020\Basic_rate_making\wk7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4DD4CC-19DB-4911-BACE-794058FE0F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFEE7E1-FBCD-4E43-BC9C-CC19AC45F88E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6876" yWindow="2112" windowWidth="13764" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
     <sheet name="ex1" sheetId="2" r:id="rId2"/>
+    <sheet name="exp aggregation" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Long Tail Claim Est</t>
   </si>
@@ -115,13 +117,166 @@
   </si>
   <si>
     <t xml:space="preserve">Used up premium is the premium associated with these reported claims. </t>
+  </si>
+  <si>
+    <t>Expected Claims</t>
+  </si>
+  <si>
+    <t>From expected loss ratio technique</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>Age to ultimate factors for reported and paid.</t>
+  </si>
+  <si>
+    <t>Earlier years reported is likely to be 1.0</t>
+  </si>
+  <si>
+    <t>Pct Unreported</t>
+  </si>
+  <si>
+    <t>1 - 1/CDF</t>
+  </si>
+  <si>
+    <t>Expected Claims Unreported</t>
+  </si>
+  <si>
+    <t>Pct unreported * expected claims</t>
+  </si>
+  <si>
+    <t>Claims Reported</t>
+  </si>
+  <si>
+    <t>Comes from the development triangle</t>
+  </si>
+  <si>
+    <t>Projected Ultimate</t>
+  </si>
+  <si>
+    <t>Unreported + reported</t>
+  </si>
+  <si>
+    <t>Projected Ultimate Claims</t>
+  </si>
+  <si>
+    <t>Difference between reported  and paid claims</t>
+  </si>
+  <si>
+    <t>Case Outstanding (or reserve)</t>
+  </si>
+  <si>
+    <t>IBNR</t>
+  </si>
+  <si>
+    <t>Ultimate Reported Claims - Claims Reported</t>
+  </si>
+  <si>
+    <t>Total Case Outstanding + IBNR</t>
+  </si>
+  <si>
+    <t>Add case outstanding + reported IBNR</t>
+  </si>
+  <si>
+    <t>Ferguson Technique</t>
+  </si>
+  <si>
+    <t>Cape Cod Technique</t>
+  </si>
+  <si>
+    <t>Estimate Used Up Premium</t>
+  </si>
+  <si>
+    <t>Denominator in ratio.</t>
+  </si>
+  <si>
+    <t>Reported Claims</t>
+  </si>
+  <si>
+    <t>Numerator of claim ratio.</t>
+  </si>
+  <si>
+    <t>Take reciprical of CDF to get % reported and multiplyl by earned premium to get used up premium</t>
+  </si>
+  <si>
+    <t>Claims Ratio</t>
+  </si>
+  <si>
+    <t>Reported Claims / Use Up Premium</t>
+  </si>
+  <si>
+    <t>Can average the claims ratios for all years.</t>
+  </si>
+  <si>
+    <t>Use same ratio for all years.</t>
+  </si>
+  <si>
+    <t>Claim Ratio * Earned Premium</t>
+  </si>
+  <si>
+    <t>Percentage Unreported</t>
+  </si>
+  <si>
+    <t>1-1/CDF * Expected Unreported</t>
+  </si>
+  <si>
+    <t>Reported Claims + Unreported Claims</t>
+  </si>
+  <si>
+    <t>Agg</t>
+  </si>
+  <si>
+    <t>Only use calendary year or policy year.</t>
+  </si>
+  <si>
+    <t>There is no accident year</t>
+  </si>
+  <si>
+    <t>Ex:</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Exp Date</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Exposure Trend</t>
+  </si>
+  <si>
+    <t>Units that are subject to inflation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +296,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -169,10 +332,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,17 +763,295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D82646C-43DE-4EFD-AC71-E081DD153885}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC72AA0-EB37-4A34-A1E6-17B5F11D8135}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="4">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4">
+        <v>40633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D1F28-A0A3-4E88-B1D0-3DCAB140B467}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>